--- a/Group2_lab02_rubrics_v1.xlsx
+++ b/Group2_lab02_rubrics_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halimsmacbookairm1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\OneDrive\Desktop\SIT\Year 2\Trimester 3\Info Visualization\Week 2\CSC3107-Information-Visualization-Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162AD39B-7340-014A-BF62-5F0CED6C5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BE120-3023-419E-AE47-708A1919431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{96928599-CDAC-4613-BDB5-4BE5E419A7EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96928599-CDAC-4613-BDB5-4BE5E419A7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Correctly handles missing values using na.rm = TRUE</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>ABDUL HALIM BIN ABDUL RAHIM(2201627), MIRZA ANAQI BIN MUHAMMAD HAIZAN(2200981), ANG GUO ZHENG FREDERICK(2203322), MARK PENG JUNG ZEN(2200849), FONG KAH KIAN(2200727), AMANDA CHAN HUI EN(2203417)</t>
+  </si>
+  <si>
+    <t>RYAN LYE (2200815), BENJAMIN LOH CHOON HOW (2201590), GABRIEL LAU HIAN (2200749), LEE MUN HONG (2200634), JOYCE TENG MIN LI (2203242), ANG ZHEN CAI (2201290)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +366,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -370,7 +376,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,40 +714,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE2CA15-2318-4978-B433-823B7C3E3AA5}">
   <dimension ref="B1:J818"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="117.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
@@ -749,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
@@ -763,7 +771,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -777,7 +785,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -787,7 +795,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -797,7 +805,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
@@ -811,14 +819,14 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -826,7 +834,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <v>2.1</v>
       </c>
@@ -843,7 +851,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -860,7 +868,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
         <v>0</v>
@@ -875,7 +883,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -892,7 +900,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="12" t="s">
         <v>26</v>
@@ -907,7 +915,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>2.4</v>
       </c>
@@ -924,7 +932,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="12" t="s">
         <v>28</v>
@@ -939,7 +947,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
         <v>2.5</v>
       </c>
@@ -956,7 +964,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="12" t="s">
         <v>30</v>
@@ -971,7 +979,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <v>2.6</v>
       </c>
@@ -988,7 +996,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
         <v>2.7</v>
       </c>
@@ -1005,7 +1013,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -1020,7 +1028,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
         <v>2.8</v>
       </c>
@@ -1037,7 +1045,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
         <v>2.9</v>
       </c>
@@ -1054,7 +1062,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="12" t="s">
         <v>33</v>
@@ -1069,7 +1077,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <v>3</v>
       </c>
@@ -1084,7 +1092,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <v>3.1</v>
       </c>
@@ -1101,7 +1109,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="12" t="s">
         <v>34</v>
@@ -1116,7 +1124,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
         <v>3.2</v>
       </c>
@@ -1133,7 +1141,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="12" t="s">
         <v>37</v>
@@ -1148,7 +1156,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="12" t="s">
         <v>19</v>
@@ -1163,7 +1171,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <v>3.3</v>
       </c>
@@ -1180,7 +1188,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="12" t="s">
         <v>20</v>
@@ -1195,7 +1203,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>3.4</v>
       </c>
@@ -1212,7 +1220,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="19" t="s">
         <v>40</v>
@@ -1227,7 +1235,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
         <v>3.5</v>
       </c>
@@ -1244,7 +1252,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="12" t="s">
         <v>21</v>
@@ -1259,7 +1267,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>3.6</v>
       </c>
@@ -1276,7 +1284,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
       <c r="C44" s="12" t="s">
         <v>22</v>
@@ -1291,7 +1299,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <v>3.7</v>
       </c>
@@ -1308,14 +1316,14 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <v>4</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -1323,7 +1331,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>4.0999999999999996</v>
       </c>
@@ -1340,7 +1348,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
         <v>4.2</v>
       </c>
@@ -1357,7 +1365,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <v>4.3</v>
       </c>
@@ -1374,7 +1382,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="51" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1397,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -1399,7 +1407,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -1409,7 +1417,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -1419,7 +1427,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -1429,7 +1437,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -1439,7 +1447,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -1449,7 +1457,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -1459,7 +1467,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -1469,7 +1477,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -1479,7 +1487,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -1489,7 +1497,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -1499,7 +1507,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -1509,7 +1517,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -1519,7 +1527,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -1529,7 +1537,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -1539,7 +1547,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -1549,7 +1557,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -1559,7 +1567,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -1569,7 +1577,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -1579,7 +1587,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -1589,7 +1597,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -1599,7 +1607,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -1609,7 +1617,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -1619,7 +1627,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -1629,7 +1637,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -1639,7 +1647,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -1649,7 +1657,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -1659,7 +1667,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -1669,7 +1677,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -1679,7 +1687,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -1689,7 +1697,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -1699,7 +1707,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -1709,7 +1717,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -1719,7 +1727,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -1729,7 +1737,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -1739,7 +1747,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -1749,7 +1757,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -1759,7 +1767,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -1769,7 +1777,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -1779,7 +1787,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -1789,7 +1797,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -1799,7 +1807,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -1809,7 +1817,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -1819,7 +1827,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -1829,7 +1837,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -1839,7 +1847,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -1849,7 +1857,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -1859,7 +1867,7 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -1869,7 +1877,7 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -1879,7 +1887,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -1889,7 +1897,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -1899,7 +1907,7 @@
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -1909,7 +1917,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -1919,7 +1927,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -1929,7 +1937,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -1939,7 +1947,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -1949,7 +1957,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -1959,7 +1967,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -1969,7 +1977,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -1979,7 +1987,7 @@
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -1989,7 +1997,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -1999,7 +2007,7 @@
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -2009,7 +2017,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -2019,7 +2027,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -2029,7 +2037,7 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -2039,7 +2047,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -2049,7 +2057,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -2059,7 +2067,7 @@
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -2069,7 +2077,7 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -2079,7 +2087,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -2089,7 +2097,7 @@
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -2099,7 +2107,7 @@
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
     </row>
-    <row r="123" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -2109,7 +2117,7 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -2119,7 +2127,7 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -2129,7 +2137,7 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -2139,7 +2147,7 @@
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -2149,7 +2157,7 @@
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
     </row>
-    <row r="128" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -2159,7 +2167,7 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -2169,7 +2177,7 @@
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -2179,7 +2187,7 @@
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -2189,7 +2197,7 @@
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -2199,7 +2207,7 @@
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -2209,7 +2217,7 @@
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -2219,7 +2227,7 @@
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -2229,7 +2237,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -2239,7 +2247,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -2249,7 +2257,7 @@
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -2259,7 +2267,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -2269,7 +2277,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -2279,7 +2287,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -2289,7 +2297,7 @@
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -2299,7 +2307,7 @@
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -2309,7 +2317,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -2319,7 +2327,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
     </row>
-    <row r="145" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -2329,7 +2337,7 @@
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
-    <row r="146" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -2339,7 +2347,7 @@
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -2349,7 +2357,7 @@
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -2359,7 +2367,7 @@
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
     </row>
-    <row r="149" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -2369,7 +2377,7 @@
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
     </row>
-    <row r="150" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -2379,7 +2387,7 @@
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -2389,7 +2397,7 @@
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
     </row>
-    <row r="152" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
@@ -2399,7 +2407,7 @@
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
     </row>
-    <row r="153" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
@@ -2409,7 +2417,7 @@
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
     </row>
-    <row r="154" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -2419,7 +2427,7 @@
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
     </row>
-    <row r="155" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -2429,7 +2437,7 @@
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
     </row>
-    <row r="156" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -2439,7 +2447,7 @@
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
     </row>
-    <row r="157" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
@@ -2449,7 +2457,7 @@
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
-    <row r="158" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -2459,7 +2467,7 @@
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
     </row>
-    <row r="159" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -2469,7 +2477,7 @@
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
     </row>
-    <row r="160" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -2479,7 +2487,7 @@
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
     </row>
-    <row r="161" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -2489,7 +2497,7 @@
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
     </row>
-    <row r="162" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -2499,7 +2507,7 @@
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -2509,7 +2517,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
     </row>
-    <row r="164" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
@@ -2519,7 +2527,7 @@
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
     </row>
-    <row r="165" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
@@ -2529,7 +2537,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -2539,7 +2547,7 @@
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
@@ -2549,7 +2557,7 @@
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
@@ -2559,7 +2567,7 @@
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
@@ -2569,7 +2577,7 @@
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
@@ -2579,7 +2587,7 @@
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
     </row>
-    <row r="171" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
@@ -2589,7 +2597,7 @@
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
@@ -2599,7 +2607,7 @@
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
     </row>
-    <row r="173" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
@@ -2609,7 +2617,7 @@
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
     </row>
-    <row r="174" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -2619,7 +2627,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
     </row>
-    <row r="175" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
@@ -2629,7 +2637,7 @@
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
@@ -2639,7 +2647,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
@@ -2649,7 +2657,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
@@ -2659,7 +2667,7 @@
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
@@ -2669,7 +2677,7 @@
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
@@ -2679,7 +2687,7 @@
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
@@ -2689,7 +2697,7 @@
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
@@ -2699,7 +2707,7 @@
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
@@ -2709,7 +2717,7 @@
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
@@ -2719,7 +2727,7 @@
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
@@ -2729,7 +2737,7 @@
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
@@ -2739,7 +2747,7 @@
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
@@ -2749,7 +2757,7 @@
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
@@ -2759,7 +2767,7 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
@@ -2769,7 +2777,7 @@
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
     </row>
-    <row r="190" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
@@ -2779,7 +2787,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
     </row>
-    <row r="191" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
@@ -2789,7 +2797,7 @@
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
     </row>
-    <row r="192" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
@@ -2799,7 +2807,7 @@
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
@@ -2809,7 +2817,7 @@
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
@@ -2819,7 +2827,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
@@ -2829,7 +2837,7 @@
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
     </row>
-    <row r="196" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
@@ -2839,7 +2847,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
@@ -2849,7 +2857,7 @@
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
@@ -2859,7 +2867,7 @@
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
@@ -2869,7 +2877,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
@@ -2879,7 +2887,7 @@
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
@@ -2889,7 +2897,7 @@
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
@@ -2899,7 +2907,7 @@
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
@@ -2909,7 +2917,7 @@
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
@@ -2919,7 +2927,7 @@
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
@@ -2929,7 +2937,7 @@
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
@@ -2939,7 +2947,7 @@
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
@@ -2949,7 +2957,7 @@
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
@@ -2959,7 +2967,7 @@
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
     </row>
-    <row r="209" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
@@ -2969,7 +2977,7 @@
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
     </row>
-    <row r="210" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
@@ -2979,7 +2987,7 @@
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
     </row>
-    <row r="211" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
@@ -2989,7 +2997,7 @@
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
     </row>
-    <row r="212" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
@@ -2999,7 +3007,7 @@
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
     </row>
-    <row r="213" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
@@ -3009,7 +3017,7 @@
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
     </row>
-    <row r="214" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
@@ -3019,7 +3027,7 @@
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
@@ -3029,7 +3037,7 @@
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
     </row>
-    <row r="216" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
@@ -3039,7 +3047,7 @@
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
@@ -3049,7 +3057,7 @@
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
     </row>
-    <row r="218" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
@@ -3059,7 +3067,7 @@
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
     </row>
-    <row r="219" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
@@ -3069,7 +3077,7 @@
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
     </row>
-    <row r="220" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
@@ -3079,7 +3087,7 @@
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
     </row>
-    <row r="221" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
@@ -3089,7 +3097,7 @@
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
     </row>
-    <row r="222" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
@@ -3099,7 +3107,7 @@
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
     </row>
-    <row r="223" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
@@ -3109,7 +3117,7 @@
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
     </row>
-    <row r="224" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
@@ -3119,7 +3127,7 @@
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
     </row>
-    <row r="225" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
@@ -3129,7 +3137,7 @@
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
     </row>
-    <row r="226" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
@@ -3139,7 +3147,7 @@
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
     </row>
-    <row r="227" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
@@ -3149,7 +3157,7 @@
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
     </row>
-    <row r="228" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
@@ -3159,7 +3167,7 @@
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
@@ -3169,7 +3177,7 @@
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
     </row>
-    <row r="230" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
@@ -3179,7 +3187,7 @@
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
     </row>
-    <row r="231" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
@@ -3189,7 +3197,7 @@
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
     </row>
-    <row r="232" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
@@ -3199,7 +3207,7 @@
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
     </row>
-    <row r="233" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
@@ -3209,7 +3217,7 @@
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
@@ -3219,7 +3227,7 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
     </row>
-    <row r="235" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
@@ -3229,7 +3237,7 @@
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
     </row>
-    <row r="236" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
@@ -3239,7 +3247,7 @@
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
     </row>
-    <row r="237" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
@@ -3249,7 +3257,7 @@
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
     </row>
-    <row r="238" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
@@ -3259,7 +3267,7 @@
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
     </row>
-    <row r="239" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
@@ -3269,7 +3277,7 @@
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
     </row>
-    <row r="240" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
@@ -3279,7 +3287,7 @@
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
     </row>
-    <row r="241" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
@@ -3289,7 +3297,7 @@
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
     </row>
-    <row r="242" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
@@ -3299,7 +3307,7 @@
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
     </row>
-    <row r="243" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
@@ -3309,7 +3317,7 @@
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
     </row>
-    <row r="244" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
@@ -3319,7 +3327,7 @@
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
     </row>
-    <row r="245" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
@@ -3329,7 +3337,7 @@
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
     </row>
-    <row r="246" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
@@ -3339,7 +3347,7 @@
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
     </row>
-    <row r="247" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
@@ -3349,7 +3357,7 @@
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
     </row>
-    <row r="248" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
@@ -3359,7 +3367,7 @@
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
     </row>
-    <row r="249" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
@@ -3369,7 +3377,7 @@
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
     </row>
-    <row r="250" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
@@ -3379,7 +3387,7 @@
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
     </row>
-    <row r="251" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
@@ -3389,7 +3397,7 @@
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
     </row>
-    <row r="252" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
@@ -3399,7 +3407,7 @@
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
     </row>
-    <row r="253" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
@@ -3409,7 +3417,7 @@
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
     </row>
-    <row r="254" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
@@ -3419,7 +3427,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
     </row>
-    <row r="255" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
@@ -3429,7 +3437,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
     </row>
-    <row r="256" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
@@ -3439,7 +3447,7 @@
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
     </row>
-    <row r="257" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
@@ -3449,7 +3457,7 @@
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
     </row>
-    <row r="258" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
@@ -3459,7 +3467,7 @@
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
     </row>
-    <row r="259" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
@@ -3469,7 +3477,7 @@
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
     </row>
-    <row r="260" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
@@ -3479,7 +3487,7 @@
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
     </row>
-    <row r="261" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
@@ -3489,7 +3497,7 @@
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
     </row>
-    <row r="262" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
@@ -3499,7 +3507,7 @@
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
     </row>
-    <row r="263" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
@@ -3509,7 +3517,7 @@
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
@@ -3519,7 +3527,7 @@
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
     </row>
-    <row r="265" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
@@ -3529,7 +3537,7 @@
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
     </row>
-    <row r="266" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
@@ -3539,7 +3547,7 @@
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
     </row>
-    <row r="267" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
@@ -3549,7 +3557,7 @@
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
     </row>
-    <row r="268" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
@@ -3559,7 +3567,7 @@
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
@@ -3569,7 +3577,7 @@
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
     </row>
-    <row r="270" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
@@ -3579,7 +3587,7 @@
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
     </row>
-    <row r="271" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
@@ -3589,7 +3597,7 @@
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
     </row>
-    <row r="272" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
@@ -3599,7 +3607,7 @@
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
     </row>
-    <row r="273" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
@@ -3609,7 +3617,7 @@
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
     </row>
-    <row r="274" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
@@ -3619,7 +3627,7 @@
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
     </row>
-    <row r="275" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
@@ -3629,7 +3637,7 @@
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
     </row>
-    <row r="276" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
@@ -3639,7 +3647,7 @@
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
     </row>
-    <row r="277" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
@@ -3649,7 +3657,7 @@
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
     </row>
-    <row r="278" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
@@ -3659,7 +3667,7 @@
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
     </row>
-    <row r="279" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
@@ -3669,7 +3677,7 @@
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
@@ -3679,7 +3687,7 @@
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
@@ -3689,7 +3697,7 @@
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
     </row>
-    <row r="282" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
@@ -3699,7 +3707,7 @@
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
@@ -3709,7 +3717,7 @@
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
     </row>
-    <row r="284" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
@@ -3719,7 +3727,7 @@
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
@@ -3729,7 +3737,7 @@
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
     </row>
-    <row r="286" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
@@ -3739,7 +3747,7 @@
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
@@ -3749,7 +3757,7 @@
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
     </row>
-    <row r="288" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
@@ -3759,7 +3767,7 @@
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
     </row>
-    <row r="289" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
@@ -3769,7 +3777,7 @@
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
     </row>
-    <row r="290" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
@@ -3779,7 +3787,7 @@
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
     </row>
-    <row r="291" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
@@ -3789,7 +3797,7 @@
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
@@ -3799,7 +3807,7 @@
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
@@ -3809,7 +3817,7 @@
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
     </row>
-    <row r="294" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
@@ -3819,7 +3827,7 @@
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
     </row>
-    <row r="295" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
@@ -3829,7 +3837,7 @@
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
     </row>
-    <row r="296" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
@@ -3839,7 +3847,7 @@
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
     </row>
-    <row r="297" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
@@ -3849,7 +3857,7 @@
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
     </row>
-    <row r="298" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
@@ -3859,7 +3867,7 @@
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
     </row>
-    <row r="299" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
@@ -3869,7 +3877,7 @@
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
@@ -3879,7 +3887,7 @@
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
     </row>
-    <row r="301" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
@@ -3889,7 +3897,7 @@
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
     </row>
-    <row r="302" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
@@ -3899,7 +3907,7 @@
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
     </row>
-    <row r="303" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
@@ -3909,7 +3917,7 @@
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
     </row>
-    <row r="304" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
@@ -3919,7 +3927,7 @@
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
     </row>
-    <row r="305" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
@@ -3929,7 +3937,7 @@
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
     </row>
-    <row r="306" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
@@ -3939,7 +3947,7 @@
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
     </row>
-    <row r="307" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
@@ -3949,7 +3957,7 @@
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
     </row>
-    <row r="308" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
@@ -3959,7 +3967,7 @@
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
     </row>
-    <row r="309" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
@@ -3969,7 +3977,7 @@
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
     </row>
-    <row r="310" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
@@ -3979,7 +3987,7 @@
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
     </row>
-    <row r="311" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
@@ -3989,7 +3997,7 @@
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
     </row>
-    <row r="312" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
@@ -3999,7 +4007,7 @@
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
     </row>
-    <row r="313" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
@@ -4009,7 +4017,7 @@
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
     </row>
-    <row r="314" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
@@ -4019,7 +4027,7 @@
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
@@ -4029,7 +4037,7 @@
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
     </row>
-    <row r="316" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
@@ -4039,7 +4047,7 @@
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
     </row>
-    <row r="317" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
@@ -4049,7 +4057,7 @@
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
@@ -4059,7 +4067,7 @@
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
     </row>
-    <row r="319" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
@@ -4069,7 +4077,7 @@
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
     </row>
-    <row r="320" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
@@ -4079,7 +4087,7 @@
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
     </row>
-    <row r="321" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
@@ -4089,7 +4097,7 @@
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
     </row>
-    <row r="322" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
@@ -4099,7 +4107,7 @@
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
     </row>
-    <row r="323" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
@@ -4109,7 +4117,7 @@
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
     </row>
-    <row r="324" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
@@ -4119,7 +4127,7 @@
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
     </row>
-    <row r="325" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
@@ -4129,7 +4137,7 @@
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
     </row>
-    <row r="326" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
@@ -4139,7 +4147,7 @@
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
     </row>
-    <row r="327" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
@@ -4149,7 +4157,7 @@
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
     </row>
-    <row r="328" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
@@ -4159,7 +4167,7 @@
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
     </row>
-    <row r="329" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
@@ -4169,7 +4177,7 @@
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
     </row>
-    <row r="330" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
@@ -4179,7 +4187,7 @@
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
     </row>
-    <row r="331" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
@@ -4189,7 +4197,7 @@
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
     </row>
-    <row r="332" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
@@ -4199,7 +4207,7 @@
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
     </row>
-    <row r="333" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
@@ -4209,7 +4217,7 @@
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
     </row>
-    <row r="334" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
@@ -4219,7 +4227,7 @@
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
     </row>
-    <row r="335" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
@@ -4229,7 +4237,7 @@
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
     </row>
-    <row r="336" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
@@ -4239,7 +4247,7 @@
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
     </row>
-    <row r="337" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
@@ -4249,7 +4257,7 @@
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
     </row>
-    <row r="338" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
@@ -4259,7 +4267,7 @@
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
     </row>
-    <row r="339" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
@@ -4269,7 +4277,7 @@
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
     </row>
-    <row r="340" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
@@ -4279,7 +4287,7 @@
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
     </row>
-    <row r="341" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
@@ -4289,7 +4297,7 @@
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
     </row>
-    <row r="342" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
@@ -4299,7 +4307,7 @@
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
     </row>
-    <row r="343" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
@@ -4309,7 +4317,7 @@
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
     </row>
-    <row r="344" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
@@ -4319,7 +4327,7 @@
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
     </row>
-    <row r="345" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
@@ -4329,7 +4337,7 @@
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
     </row>
-    <row r="346" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
@@ -4339,7 +4347,7 @@
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
     </row>
-    <row r="347" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
@@ -4349,7 +4357,7 @@
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
     </row>
-    <row r="348" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
@@ -4359,7 +4367,7 @@
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
     </row>
-    <row r="349" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
@@ -4369,7 +4377,7 @@
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
     </row>
-    <row r="350" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
@@ -4379,7 +4387,7 @@
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
     </row>
-    <row r="351" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
@@ -4389,7 +4397,7 @@
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
     </row>
-    <row r="352" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
@@ -4399,7 +4407,7 @@
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
     </row>
-    <row r="353" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
@@ -4409,7 +4417,7 @@
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
     </row>
-    <row r="354" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
@@ -4419,7 +4427,7 @@
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
@@ -4429,7 +4437,7 @@
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
     </row>
-    <row r="356" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
@@ -4439,7 +4447,7 @@
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
     </row>
-    <row r="357" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
@@ -4449,7 +4457,7 @@
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
     </row>
-    <row r="358" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
@@ -4459,7 +4467,7 @@
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
     </row>
-    <row r="359" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
@@ -4469,7 +4477,7 @@
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
     </row>
-    <row r="360" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
@@ -4479,7 +4487,7 @@
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
     </row>
-    <row r="361" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
@@ -4489,7 +4497,7 @@
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
@@ -4499,7 +4507,7 @@
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
@@ -4509,7 +4517,7 @@
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
     </row>
-    <row r="364" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
@@ -4519,7 +4527,7 @@
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
     </row>
-    <row r="365" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
@@ -4529,7 +4537,7 @@
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
     </row>
-    <row r="366" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
@@ -4539,7 +4547,7 @@
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
     </row>
-    <row r="367" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
@@ -4549,7 +4557,7 @@
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
     </row>
-    <row r="368" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
@@ -4559,7 +4567,7 @@
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
     </row>
-    <row r="369" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
@@ -4569,7 +4577,7 @@
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
     </row>
-    <row r="370" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
@@ -4579,7 +4587,7 @@
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
     </row>
-    <row r="371" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
@@ -4589,7 +4597,7 @@
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
     </row>
-    <row r="372" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
@@ -4599,7 +4607,7 @@
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
     </row>
-    <row r="373" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
@@ -4609,7 +4617,7 @@
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
     </row>
-    <row r="374" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
@@ -4619,7 +4627,7 @@
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
     </row>
-    <row r="375" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
@@ -4629,7 +4637,7 @@
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
     </row>
-    <row r="376" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
@@ -4639,7 +4647,7 @@
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
     </row>
-    <row r="377" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
@@ -4649,7 +4657,7 @@
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
     </row>
-    <row r="378" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
@@ -4659,7 +4667,7 @@
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
     </row>
-    <row r="379" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
@@ -4669,7 +4677,7 @@
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
     </row>
-    <row r="380" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
@@ -4679,7 +4687,7 @@
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
     </row>
-    <row r="381" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
@@ -4689,7 +4697,7 @@
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
     </row>
-    <row r="382" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
@@ -4699,7 +4707,7 @@
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
     </row>
-    <row r="383" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
@@ -4709,7 +4717,7 @@
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
     </row>
-    <row r="384" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
@@ -4719,7 +4727,7 @@
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
     </row>
-    <row r="385" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
@@ -4729,7 +4737,7 @@
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
     </row>
-    <row r="386" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
@@ -4739,7 +4747,7 @@
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
     </row>
-    <row r="387" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
@@ -4749,7 +4757,7 @@
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
     </row>
-    <row r="388" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
@@ -4759,7 +4767,7 @@
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
     </row>
-    <row r="389" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
@@ -4769,7 +4777,7 @@
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
     </row>
-    <row r="390" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
@@ -4779,7 +4787,7 @@
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
     </row>
-    <row r="391" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
@@ -4789,7 +4797,7 @@
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
     </row>
-    <row r="392" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
@@ -4799,7 +4807,7 @@
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
     </row>
-    <row r="393" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
@@ -4809,7 +4817,7 @@
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
     </row>
-    <row r="394" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
@@ -4819,7 +4827,7 @@
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
     </row>
-    <row r="395" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
@@ -4829,7 +4837,7 @@
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
     </row>
-    <row r="396" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
@@ -4839,7 +4847,7 @@
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
     </row>
-    <row r="397" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
@@ -4849,7 +4857,7 @@
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
@@ -4859,7 +4867,7 @@
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
     </row>
-    <row r="399" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
@@ -4869,7 +4877,7 @@
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
@@ -4879,7 +4887,7 @@
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
@@ -4889,7 +4897,7 @@
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
     </row>
-    <row r="402" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
@@ -4899,7 +4907,7 @@
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
     </row>
-    <row r="403" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
@@ -4909,7 +4917,7 @@
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
     </row>
-    <row r="404" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
@@ -4919,7 +4927,7 @@
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
     </row>
-    <row r="405" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
@@ -4929,7 +4937,7 @@
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
     </row>
-    <row r="406" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
@@ -4939,7 +4947,7 @@
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
     </row>
-    <row r="407" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
@@ -4949,7 +4957,7 @@
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
     </row>
-    <row r="408" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
@@ -4959,7 +4967,7 @@
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
     </row>
-    <row r="409" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
@@ -4969,7 +4977,7 @@
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
     </row>
-    <row r="410" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
@@ -4979,7 +4987,7 @@
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
     </row>
-    <row r="411" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
@@ -4989,7 +4997,7 @@
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
     </row>
-    <row r="412" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
@@ -4999,7 +5007,7 @@
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
@@ -5009,7 +5017,7 @@
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
     </row>
-    <row r="414" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
@@ -5019,7 +5027,7 @@
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
     </row>
-    <row r="415" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
@@ -5029,7 +5037,7 @@
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
     </row>
-    <row r="416" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
@@ -5039,7 +5047,7 @@
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
     </row>
-    <row r="417" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
@@ -5049,7 +5057,7 @@
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
     </row>
-    <row r="418" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
@@ -5059,7 +5067,7 @@
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
     </row>
-    <row r="419" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
@@ -5069,7 +5077,7 @@
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
     </row>
-    <row r="420" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
@@ -5079,7 +5087,7 @@
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
     </row>
-    <row r="421" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
@@ -5089,7 +5097,7 @@
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
     </row>
-    <row r="422" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
@@ -5099,7 +5107,7 @@
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
     </row>
-    <row r="423" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
@@ -5109,7 +5117,7 @@
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
     </row>
-    <row r="424" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
@@ -5119,7 +5127,7 @@
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
     </row>
-    <row r="425" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
@@ -5129,7 +5137,7 @@
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
     </row>
-    <row r="426" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
@@ -5139,7 +5147,7 @@
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
     </row>
-    <row r="427" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
@@ -5149,7 +5157,7 @@
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
     </row>
-    <row r="428" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
@@ -5159,7 +5167,7 @@
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
     </row>
-    <row r="429" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
@@ -5169,7 +5177,7 @@
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
     </row>
-    <row r="430" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
@@ -5179,7 +5187,7 @@
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
@@ -5189,7 +5197,7 @@
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
     </row>
-    <row r="432" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
@@ -5199,7 +5207,7 @@
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
     </row>
-    <row r="433" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
@@ -5209,7 +5217,7 @@
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
     </row>
-    <row r="434" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
@@ -5219,7 +5227,7 @@
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
@@ -5229,7 +5237,7 @@
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
     </row>
-    <row r="436" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
@@ -5239,7 +5247,7 @@
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
     </row>
-    <row r="437" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
@@ -5249,7 +5257,7 @@
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
     </row>
-    <row r="438" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
@@ -5259,7 +5267,7 @@
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
     </row>
-    <row r="439" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
@@ -5269,7 +5277,7 @@
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
     </row>
-    <row r="440" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
@@ -5279,7 +5287,7 @@
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
     </row>
-    <row r="441" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -5289,7 +5297,7 @@
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
     </row>
-    <row r="442" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
@@ -5299,7 +5307,7 @@
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
@@ -5309,7 +5317,7 @@
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
     </row>
-    <row r="444" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
@@ -5319,7 +5327,7 @@
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
     </row>
-    <row r="445" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
@@ -5329,7 +5337,7 @@
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
     </row>
-    <row r="446" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
@@ -5339,7 +5347,7 @@
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
@@ -5349,7 +5357,7 @@
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
     </row>
-    <row r="448" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
@@ -5359,7 +5367,7 @@
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
     </row>
-    <row r="449" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
@@ -5369,7 +5377,7 @@
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
     </row>
-    <row r="450" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
@@ -5379,7 +5387,7 @@
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
     </row>
-    <row r="451" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
@@ -5389,7 +5397,7 @@
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
     </row>
-    <row r="452" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
@@ -5399,7 +5407,7 @@
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
     </row>
-    <row r="453" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
@@ -5409,7 +5417,7 @@
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
     </row>
-    <row r="454" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
@@ -5419,7 +5427,7 @@
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
@@ -5429,7 +5437,7 @@
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
     </row>
-    <row r="456" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
@@ -5439,7 +5447,7 @@
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
     </row>
-    <row r="457" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
@@ -5449,7 +5457,7 @@
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
     </row>
-    <row r="458" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
@@ -5459,7 +5467,7 @@
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
     </row>
-    <row r="459" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
@@ -5469,7 +5477,7 @@
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
     </row>
-    <row r="460" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
@@ -5479,7 +5487,7 @@
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
     </row>
-    <row r="461" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
@@ -5489,7 +5497,7 @@
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
     </row>
-    <row r="462" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
@@ -5499,7 +5507,7 @@
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
     </row>
-    <row r="463" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
@@ -5509,7 +5517,7 @@
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
     </row>
-    <row r="464" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
@@ -5519,7 +5527,7 @@
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
     </row>
-    <row r="465" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
@@ -5529,7 +5537,7 @@
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
     </row>
-    <row r="466" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
@@ -5539,7 +5547,7 @@
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
     </row>
-    <row r="467" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
@@ -5549,7 +5557,7 @@
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
     </row>
-    <row r="468" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
@@ -5559,7 +5567,7 @@
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
     </row>
-    <row r="469" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
@@ -5569,7 +5577,7 @@
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
     </row>
-    <row r="470" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
@@ -5579,7 +5587,7 @@
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
     </row>
-    <row r="471" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
@@ -5589,7 +5597,7 @@
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
     </row>
-    <row r="472" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
@@ -5599,7 +5607,7 @@
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
     </row>
-    <row r="473" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
@@ -5609,7 +5617,7 @@
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
     </row>
-    <row r="474" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
@@ -5619,7 +5627,7 @@
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
     </row>
-    <row r="475" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
@@ -5629,7 +5637,7 @@
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
     </row>
-    <row r="476" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
@@ -5639,7 +5647,7 @@
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
     </row>
-    <row r="477" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
@@ -5649,7 +5657,7 @@
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
     </row>
-    <row r="478" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
@@ -5659,7 +5667,7 @@
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
     </row>
-    <row r="479" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
@@ -5669,7 +5677,7 @@
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
     </row>
-    <row r="480" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
@@ -5679,7 +5687,7 @@
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
     </row>
-    <row r="481" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
@@ -5689,7 +5697,7 @@
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
     </row>
-    <row r="482" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
@@ -5699,7 +5707,7 @@
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
     </row>
-    <row r="483" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
@@ -5709,7 +5717,7 @@
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
     </row>
-    <row r="484" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
@@ -5719,7 +5727,7 @@
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
     </row>
-    <row r="485" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
@@ -5729,7 +5737,7 @@
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
     </row>
-    <row r="486" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
@@ -5739,7 +5747,7 @@
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
     </row>
-    <row r="487" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
@@ -5749,7 +5757,7 @@
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
     </row>
-    <row r="488" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
@@ -5759,7 +5767,7 @@
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
     </row>
-    <row r="489" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
@@ -5769,7 +5777,7 @@
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
     </row>
-    <row r="490" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
@@ -5779,7 +5787,7 @@
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
     </row>
-    <row r="491" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
@@ -5789,7 +5797,7 @@
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
     </row>
-    <row r="492" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
@@ -5799,7 +5807,7 @@
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
     </row>
-    <row r="493" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
@@ -5809,7 +5817,7 @@
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
     </row>
-    <row r="494" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
@@ -5819,7 +5827,7 @@
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
@@ -5829,7 +5837,7 @@
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
@@ -5839,7 +5847,7 @@
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
     </row>
-    <row r="497" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
@@ -5849,7 +5857,7 @@
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
     </row>
-    <row r="498" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
@@ -5859,7 +5867,7 @@
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
     </row>
-    <row r="499" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
@@ -5869,7 +5877,7 @@
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
     </row>
-    <row r="500" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
@@ -5879,7 +5887,7 @@
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
     </row>
-    <row r="501" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
@@ -5889,7 +5897,7 @@
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
     </row>
-    <row r="502" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
@@ -5899,7 +5907,7 @@
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
@@ -5909,7 +5917,7 @@
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
@@ -5919,7 +5927,7 @@
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
@@ -5929,7 +5937,7 @@
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C506" s="8"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
@@ -5939,7 +5947,7 @@
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C507" s="8"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
@@ -5949,7 +5957,7 @@
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
     </row>
-    <row r="508" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C508" s="8"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
@@ -5959,7 +5967,7 @@
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C509" s="8"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
@@ -5969,7 +5977,7 @@
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
     </row>
-    <row r="510" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
@@ -5979,7 +5987,7 @@
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
     </row>
-    <row r="511" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C511" s="8"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
@@ -5989,7 +5997,7 @@
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
     </row>
-    <row r="512" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C512" s="8"/>
       <c r="D512" s="8"/>
       <c r="E512" s="8"/>
@@ -5999,7 +6007,7 @@
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
     </row>
-    <row r="513" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C513" s="8"/>
       <c r="D513" s="8"/>
       <c r="E513" s="8"/>
@@ -6009,7 +6017,7 @@
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
     </row>
-    <row r="514" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C514" s="8"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
@@ -6019,7 +6027,7 @@
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
     </row>
-    <row r="515" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C515" s="8"/>
       <c r="D515" s="8"/>
       <c r="E515" s="8"/>
@@ -6029,7 +6037,7 @@
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
     </row>
-    <row r="516" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C516" s="8"/>
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
@@ -6039,7 +6047,7 @@
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
     </row>
-    <row r="517" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C517" s="8"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
@@ -6049,7 +6057,7 @@
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
     </row>
-    <row r="518" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C518" s="8"/>
       <c r="D518" s="8"/>
       <c r="E518" s="8"/>
@@ -6059,7 +6067,7 @@
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
     </row>
-    <row r="519" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
       <c r="E519" s="8"/>
@@ -6069,7 +6077,7 @@
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
     </row>
-    <row r="520" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C520" s="8"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
@@ -6079,7 +6087,7 @@
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
     </row>
-    <row r="521" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C521" s="8"/>
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
@@ -6089,7 +6097,7 @@
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
     </row>
-    <row r="522" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C522" s="8"/>
       <c r="D522" s="8"/>
       <c r="E522" s="8"/>
@@ -6099,7 +6107,7 @@
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
     </row>
-    <row r="523" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C523" s="8"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
@@ -6109,7 +6117,7 @@
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
     </row>
-    <row r="524" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C524" s="8"/>
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
@@ -6119,7 +6127,7 @@
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
     </row>
-    <row r="525" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C525" s="8"/>
       <c r="D525" s="8"/>
       <c r="E525" s="8"/>
@@ -6129,7 +6137,7 @@
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
     </row>
-    <row r="526" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C526" s="8"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
@@ -6139,7 +6147,7 @@
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
     </row>
-    <row r="527" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C527" s="8"/>
       <c r="D527" s="8"/>
       <c r="E527" s="8"/>
@@ -6149,7 +6157,7 @@
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C528" s="8"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
@@ -6159,7 +6167,7 @@
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
     </row>
-    <row r="529" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C529" s="8"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
@@ -6169,7 +6177,7 @@
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
     </row>
-    <row r="530" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
@@ -6179,7 +6187,7 @@
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
     </row>
-    <row r="531" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
@@ -6189,7 +6197,7 @@
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
     </row>
-    <row r="532" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
@@ -6199,7 +6207,7 @@
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
     </row>
-    <row r="533" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C533" s="8"/>
       <c r="D533" s="8"/>
       <c r="E533" s="8"/>
@@ -6209,7 +6217,7 @@
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
     </row>
-    <row r="534" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C534" s="8"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
@@ -6219,7 +6227,7 @@
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
     </row>
-    <row r="535" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C535" s="8"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
@@ -6229,7 +6237,7 @@
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
     </row>
-    <row r="536" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C536" s="8"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
@@ -6239,7 +6247,7 @@
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
     </row>
-    <row r="537" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C537" s="8"/>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
@@ -6249,7 +6257,7 @@
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
     </row>
-    <row r="538" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C538" s="8"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
@@ -6259,7 +6267,7 @@
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
     </row>
-    <row r="539" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
@@ -6269,7 +6277,7 @@
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
     </row>
-    <row r="540" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C540" s="8"/>
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
@@ -6279,7 +6287,7 @@
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
     </row>
-    <row r="541" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C541" s="8"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
@@ -6289,7 +6297,7 @@
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
     </row>
-    <row r="542" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C542" s="8"/>
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
@@ -6299,7 +6307,7 @@
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
     </row>
-    <row r="543" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C543" s="8"/>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
@@ -6309,7 +6317,7 @@
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
     </row>
-    <row r="544" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C544" s="8"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
@@ -6319,7 +6327,7 @@
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
     </row>
-    <row r="545" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C545" s="8"/>
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
@@ -6329,7 +6337,7 @@
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
     </row>
-    <row r="546" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C546" s="8"/>
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
@@ -6339,7 +6347,7 @@
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
     </row>
-    <row r="547" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
@@ -6349,7 +6357,7 @@
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
     </row>
-    <row r="548" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
@@ -6359,7 +6367,7 @@
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
     </row>
-    <row r="549" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
@@ -6369,7 +6377,7 @@
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
     </row>
-    <row r="550" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
@@ -6379,7 +6387,7 @@
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
     </row>
-    <row r="551" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
@@ -6389,7 +6397,7 @@
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
     </row>
-    <row r="552" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
@@ -6399,7 +6407,7 @@
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
     </row>
-    <row r="553" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
@@ -6409,7 +6417,7 @@
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
     </row>
-    <row r="554" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
@@ -6419,7 +6427,7 @@
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
     </row>
-    <row r="555" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
@@ -6429,7 +6437,7 @@
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
     </row>
-    <row r="556" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
@@ -6439,7 +6447,7 @@
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
     </row>
-    <row r="557" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
@@ -6449,7 +6457,7 @@
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
     </row>
-    <row r="558" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
@@ -6459,7 +6467,7 @@
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
     </row>
-    <row r="559" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
@@ -6469,7 +6477,7 @@
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
     </row>
-    <row r="560" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
       <c r="E560" s="8"/>
@@ -6479,7 +6487,7 @@
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
     </row>
-    <row r="561" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
@@ -6489,7 +6497,7 @@
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
     </row>
-    <row r="562" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
@@ -6499,7 +6507,7 @@
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
     </row>
-    <row r="563" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
@@ -6509,7 +6517,7 @@
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
     </row>
-    <row r="564" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
       <c r="E564" s="8"/>
@@ -6519,7 +6527,7 @@
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
     </row>
-    <row r="565" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
@@ -6529,7 +6537,7 @@
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
     </row>
-    <row r="566" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
       <c r="E566" s="8"/>
@@ -6539,7 +6547,7 @@
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
     </row>
-    <row r="567" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
       <c r="E567" s="8"/>
@@ -6549,7 +6557,7 @@
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
@@ -6559,7 +6567,7 @@
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
     </row>
-    <row r="569" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
       <c r="E569" s="8"/>
@@ -6569,7 +6577,7 @@
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
     </row>
-    <row r="570" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
@@ -6579,7 +6587,7 @@
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
     </row>
-    <row r="571" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
@@ -6589,7 +6597,7 @@
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
     </row>
-    <row r="572" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
@@ -6599,7 +6607,7 @@
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
     </row>
-    <row r="573" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
       <c r="E573" s="8"/>
@@ -6609,7 +6617,7 @@
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
     </row>
-    <row r="574" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
@@ -6619,7 +6627,7 @@
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
     </row>
-    <row r="575" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
@@ -6629,7 +6637,7 @@
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
     </row>
-    <row r="576" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
@@ -6639,7 +6647,7 @@
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
     </row>
-    <row r="577" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
@@ -6649,7 +6657,7 @@
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
     </row>
-    <row r="578" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
       <c r="E578" s="8"/>
@@ -6659,7 +6667,7 @@
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
     </row>
-    <row r="579" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
@@ -6669,7 +6677,7 @@
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
     </row>
-    <row r="580" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
       <c r="E580" s="8"/>
@@ -6679,7 +6687,7 @@
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
     </row>
-    <row r="581" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
       <c r="E581" s="8"/>
@@ -6689,7 +6697,7 @@
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
     </row>
-    <row r="582" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
@@ -6699,7 +6707,7 @@
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
     </row>
-    <row r="583" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
       <c r="E583" s="8"/>
@@ -6709,7 +6717,7 @@
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
     </row>
-    <row r="584" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
       <c r="E584" s="8"/>
@@ -6719,7 +6727,7 @@
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
     </row>
-    <row r="585" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
       <c r="E585" s="8"/>
@@ -6729,7 +6737,7 @@
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
     </row>
-    <row r="586" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
@@ -6739,7 +6747,7 @@
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
       <c r="E587" s="8"/>
@@ -6749,7 +6757,7 @@
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
     </row>
-    <row r="588" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
@@ -6759,7 +6767,7 @@
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
     </row>
-    <row r="589" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
       <c r="E589" s="8"/>
@@ -6769,7 +6777,7 @@
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
     </row>
-    <row r="590" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
       <c r="E590" s="8"/>
@@ -6779,7 +6787,7 @@
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
     </row>
-    <row r="591" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
@@ -6789,7 +6797,7 @@
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
     </row>
-    <row r="592" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
       <c r="E592" s="8"/>
@@ -6799,7 +6807,7 @@
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
     </row>
-    <row r="593" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
       <c r="E593" s="8"/>
@@ -6809,7 +6817,7 @@
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
     </row>
-    <row r="594" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
       <c r="E594" s="8"/>
@@ -6819,7 +6827,7 @@
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
     </row>
-    <row r="595" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
       <c r="E595" s="8"/>
@@ -6829,7 +6837,7 @@
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
     </row>
-    <row r="596" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
       <c r="E596" s="8"/>
@@ -6839,7 +6847,7 @@
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
     </row>
-    <row r="597" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
@@ -6849,7 +6857,7 @@
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
     </row>
-    <row r="598" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
       <c r="E598" s="8"/>
@@ -6859,7 +6867,7 @@
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
     </row>
-    <row r="599" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
       <c r="E599" s="8"/>
@@ -6869,7 +6877,7 @@
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
     </row>
-    <row r="600" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
@@ -6879,7 +6887,7 @@
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
     </row>
-    <row r="601" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
@@ -6889,7 +6897,7 @@
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
     </row>
-    <row r="602" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
@@ -6899,7 +6907,7 @@
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
     </row>
-    <row r="603" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
@@ -6909,7 +6917,7 @@
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
     </row>
-    <row r="604" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
       <c r="E604" s="8"/>
@@ -6919,7 +6927,7 @@
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
     </row>
-    <row r="605" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
@@ -6929,7 +6937,7 @@
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
     </row>
-    <row r="606" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
       <c r="E606" s="8"/>
@@ -6939,7 +6947,7 @@
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
     </row>
-    <row r="607" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
       <c r="E607" s="8"/>
@@ -6949,7 +6957,7 @@
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
     </row>
-    <row r="608" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
       <c r="E608" s="8"/>
@@ -6959,7 +6967,7 @@
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
     </row>
-    <row r="609" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
       <c r="E609" s="8"/>
@@ -6969,7 +6977,7 @@
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
     </row>
-    <row r="610" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
       <c r="E610" s="8"/>
@@ -6979,7 +6987,7 @@
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
     </row>
-    <row r="611" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
@@ -6989,7 +6997,7 @@
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
     </row>
-    <row r="612" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
@@ -6999,7 +7007,7 @@
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
     </row>
-    <row r="613" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
@@ -7009,7 +7017,7 @@
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
     </row>
-    <row r="614" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
@@ -7019,7 +7027,7 @@
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
     </row>
-    <row r="615" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
       <c r="E615" s="8"/>
@@ -7029,7 +7037,7 @@
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
     </row>
-    <row r="616" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
@@ -7039,7 +7047,7 @@
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
     </row>
-    <row r="617" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
@@ -7049,7 +7057,7 @@
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
     </row>
-    <row r="618" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
@@ -7059,7 +7067,7 @@
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
     </row>
-    <row r="619" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
@@ -7069,7 +7077,7 @@
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
     </row>
-    <row r="620" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
       <c r="E620" s="8"/>
@@ -7079,7 +7087,7 @@
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
     </row>
-    <row r="621" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
       <c r="E621" s="8"/>
@@ -7089,7 +7097,7 @@
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
     </row>
-    <row r="622" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
       <c r="E622" s="8"/>
@@ -7099,7 +7107,7 @@
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
     </row>
-    <row r="623" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
       <c r="E623" s="8"/>
@@ -7109,7 +7117,7 @@
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
     </row>
-    <row r="624" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
@@ -7119,7 +7127,7 @@
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
     </row>
-    <row r="625" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
       <c r="E625" s="8"/>
@@ -7129,7 +7137,7 @@
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
     </row>
-    <row r="626" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
       <c r="E626" s="8"/>
@@ -7139,7 +7147,7 @@
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
     </row>
-    <row r="627" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
       <c r="E627" s="8"/>
@@ -7149,7 +7157,7 @@
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
     </row>
-    <row r="628" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
       <c r="E628" s="8"/>
@@ -7159,7 +7167,7 @@
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
     </row>
-    <row r="629" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
       <c r="E629" s="8"/>
@@ -7169,7 +7177,7 @@
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
     </row>
-    <row r="630" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
       <c r="E630" s="8"/>
@@ -7179,7 +7187,7 @@
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
     </row>
-    <row r="631" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
       <c r="E631" s="8"/>
@@ -7189,7 +7197,7 @@
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
     </row>
-    <row r="632" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
       <c r="E632" s="8"/>
@@ -7199,7 +7207,7 @@
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
     </row>
-    <row r="633" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
       <c r="E633" s="8"/>
@@ -7209,7 +7217,7 @@
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
     </row>
-    <row r="634" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
       <c r="E634" s="8"/>
@@ -7219,7 +7227,7 @@
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
     </row>
-    <row r="635" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
       <c r="E635" s="8"/>
@@ -7229,7 +7237,7 @@
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
     </row>
-    <row r="636" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
       <c r="E636" s="8"/>
@@ -7239,7 +7247,7 @@
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
     </row>
-    <row r="637" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
       <c r="E637" s="8"/>
@@ -7249,7 +7257,7 @@
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
     </row>
-    <row r="638" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
       <c r="E638" s="8"/>
@@ -7259,7 +7267,7 @@
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
     </row>
-    <row r="639" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
@@ -7269,7 +7277,7 @@
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
     </row>
-    <row r="640" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
       <c r="E640" s="8"/>
@@ -7279,7 +7287,7 @@
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
     </row>
-    <row r="641" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
       <c r="E641" s="8"/>
@@ -7289,7 +7297,7 @@
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
     </row>
-    <row r="642" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
       <c r="E642" s="8"/>
@@ -7299,7 +7307,7 @@
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
     </row>
-    <row r="643" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
       <c r="E643" s="8"/>
@@ -7309,7 +7317,7 @@
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
     </row>
-    <row r="644" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
       <c r="E644" s="8"/>
@@ -7319,7 +7327,7 @@
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
     </row>
-    <row r="645" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
       <c r="E645" s="8"/>
@@ -7329,7 +7337,7 @@
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
     </row>
-    <row r="646" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
@@ -7339,7 +7347,7 @@
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
     </row>
-    <row r="647" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
       <c r="E647" s="8"/>
@@ -7349,7 +7357,7 @@
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
     </row>
-    <row r="648" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
       <c r="E648" s="8"/>
@@ -7359,7 +7367,7 @@
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
     </row>
-    <row r="649" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
       <c r="E649" s="8"/>
@@ -7369,7 +7377,7 @@
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
     </row>
-    <row r="650" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
       <c r="E650" s="8"/>
@@ -7379,7 +7387,7 @@
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
     </row>
-    <row r="651" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
       <c r="E651" s="8"/>
@@ -7389,7 +7397,7 @@
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
     </row>
-    <row r="652" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
       <c r="E652" s="8"/>
@@ -7399,7 +7407,7 @@
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
     </row>
-    <row r="653" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
       <c r="E653" s="8"/>
@@ -7409,7 +7417,7 @@
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
     </row>
-    <row r="654" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
       <c r="E654" s="8"/>
@@ -7419,7 +7427,7 @@
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
     </row>
-    <row r="655" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
       <c r="E655" s="8"/>
@@ -7429,7 +7437,7 @@
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
     </row>
-    <row r="656" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
       <c r="E656" s="8"/>
@@ -7439,7 +7447,7 @@
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
     </row>
-    <row r="657" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
       <c r="E657" s="8"/>
@@ -7449,7 +7457,7 @@
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
     </row>
-    <row r="658" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
       <c r="E658" s="8"/>
@@ -7459,7 +7467,7 @@
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
     </row>
-    <row r="659" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
       <c r="E659" s="8"/>
@@ -7469,7 +7477,7 @@
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
     </row>
-    <row r="660" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
       <c r="E660" s="8"/>
@@ -7479,7 +7487,7 @@
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
     </row>
-    <row r="661" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
       <c r="E661" s="8"/>
@@ -7489,7 +7497,7 @@
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
     </row>
-    <row r="662" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
       <c r="E662" s="8"/>
@@ -7499,7 +7507,7 @@
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
     </row>
-    <row r="663" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
       <c r="E663" s="8"/>
@@ -7509,7 +7517,7 @@
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
     </row>
-    <row r="664" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
       <c r="E664" s="8"/>
@@ -7519,7 +7527,7 @@
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
     </row>
-    <row r="665" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
       <c r="E665" s="8"/>
@@ -7529,7 +7537,7 @@
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
     </row>
-    <row r="666" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
       <c r="E666" s="8"/>
@@ -7539,7 +7547,7 @@
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
     </row>
-    <row r="667" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
       <c r="E667" s="8"/>
@@ -7549,7 +7557,7 @@
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
     </row>
-    <row r="668" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
       <c r="E668" s="8"/>
@@ -7559,7 +7567,7 @@
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
     </row>
-    <row r="669" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
       <c r="E669" s="8"/>
@@ -7569,7 +7577,7 @@
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
     </row>
-    <row r="670" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
       <c r="E670" s="8"/>
@@ -7579,7 +7587,7 @@
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
     </row>
-    <row r="671" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
       <c r="E671" s="8"/>
@@ -7589,7 +7597,7 @@
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
     </row>
-    <row r="672" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
       <c r="E672" s="8"/>
@@ -7599,7 +7607,7 @@
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
     </row>
-    <row r="673" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
       <c r="E673" s="8"/>
@@ -7609,7 +7617,7 @@
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
     </row>
-    <row r="674" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
       <c r="E674" s="8"/>
@@ -7619,7 +7627,7 @@
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
     </row>
-    <row r="675" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
       <c r="E675" s="8"/>
@@ -7629,7 +7637,7 @@
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
     </row>
-    <row r="676" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
       <c r="E676" s="8"/>
@@ -7639,7 +7647,7 @@
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
     </row>
-    <row r="677" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
       <c r="E677" s="8"/>
@@ -7649,7 +7657,7 @@
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
     </row>
-    <row r="678" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
       <c r="E678" s="8"/>
@@ -7659,7 +7667,7 @@
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
     </row>
-    <row r="679" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
       <c r="E679" s="8"/>
@@ -7669,7 +7677,7 @@
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
     </row>
-    <row r="680" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
       <c r="E680" s="8"/>
@@ -7679,7 +7687,7 @@
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
     </row>
-    <row r="681" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
       <c r="E681" s="8"/>
@@ -7689,7 +7697,7 @@
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
     </row>
-    <row r="682" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
       <c r="E682" s="8"/>
@@ -7699,7 +7707,7 @@
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
     </row>
-    <row r="683" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
       <c r="E683" s="8"/>
@@ -7709,7 +7717,7 @@
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
     </row>
-    <row r="684" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
       <c r="E684" s="8"/>
@@ -7719,7 +7727,7 @@
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
     </row>
-    <row r="685" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
       <c r="E685" s="8"/>
@@ -7729,7 +7737,7 @@
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
     </row>
-    <row r="686" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
       <c r="E686" s="8"/>
@@ -7739,7 +7747,7 @@
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
     </row>
-    <row r="687" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
       <c r="E687" s="8"/>
@@ -7749,7 +7757,7 @@
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
     </row>
-    <row r="688" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
       <c r="E688" s="8"/>
@@ -7759,7 +7767,7 @@
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
     </row>
-    <row r="689" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
       <c r="E689" s="8"/>
@@ -7769,7 +7777,7 @@
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
     </row>
-    <row r="690" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
       <c r="E690" s="8"/>
@@ -7779,7 +7787,7 @@
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
     </row>
-    <row r="691" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
       <c r="E691" s="8"/>
@@ -7789,7 +7797,7 @@
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
     </row>
-    <row r="692" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
       <c r="E692" s="8"/>
@@ -7799,7 +7807,7 @@
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
     </row>
-    <row r="693" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
       <c r="E693" s="8"/>
@@ -7809,7 +7817,7 @@
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
     </row>
-    <row r="694" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
       <c r="E694" s="8"/>
@@ -7819,7 +7827,7 @@
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
     </row>
-    <row r="695" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
       <c r="E695" s="8"/>
@@ -7829,7 +7837,7 @@
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
     </row>
-    <row r="696" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
       <c r="E696" s="8"/>
@@ -7839,7 +7847,7 @@
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
     </row>
-    <row r="697" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
       <c r="E697" s="8"/>
@@ -7849,7 +7857,7 @@
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
     </row>
-    <row r="698" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
       <c r="E698" s="8"/>
@@ -7859,7 +7867,7 @@
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
     </row>
-    <row r="699" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
       <c r="E699" s="8"/>
@@ -7869,7 +7877,7 @@
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
     </row>
-    <row r="700" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
       <c r="E700" s="8"/>
@@ -7879,7 +7887,7 @@
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
     </row>
-    <row r="701" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
       <c r="E701" s="8"/>
@@ -7889,7 +7897,7 @@
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
     </row>
-    <row r="702" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
       <c r="E702" s="8"/>
@@ -7899,7 +7907,7 @@
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
     </row>
-    <row r="703" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8"/>
@@ -7909,7 +7917,7 @@
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
     </row>
-    <row r="704" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8"/>
@@ -7919,7 +7927,7 @@
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
     </row>
-    <row r="705" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
       <c r="E705" s="8"/>
@@ -7929,7 +7937,7 @@
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
     </row>
-    <row r="706" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
       <c r="E706" s="8"/>
@@ -7939,7 +7947,7 @@
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
     </row>
-    <row r="707" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
       <c r="E707" s="8"/>
@@ -7949,7 +7957,7 @@
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
     </row>
-    <row r="708" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
       <c r="E708" s="8"/>
@@ -7959,7 +7967,7 @@
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
     </row>
-    <row r="709" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
       <c r="E709" s="8"/>
@@ -7969,7 +7977,7 @@
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
     </row>
-    <row r="710" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
       <c r="E710" s="8"/>
@@ -7979,7 +7987,7 @@
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
     </row>
-    <row r="711" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
       <c r="E711" s="8"/>
@@ -7989,7 +7997,7 @@
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
     </row>
-    <row r="712" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
       <c r="E712" s="8"/>
@@ -7999,7 +8007,7 @@
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
     </row>
-    <row r="713" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
       <c r="E713" s="8"/>
@@ -8009,7 +8017,7 @@
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
     </row>
-    <row r="714" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
       <c r="E714" s="8"/>
@@ -8019,7 +8027,7 @@
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
     </row>
-    <row r="715" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
       <c r="E715" s="8"/>
@@ -8029,7 +8037,7 @@
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
     </row>
-    <row r="716" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
       <c r="E716" s="8"/>
@@ -8039,7 +8047,7 @@
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
     </row>
-    <row r="717" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
       <c r="E717" s="8"/>
@@ -8049,7 +8057,7 @@
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
     </row>
-    <row r="718" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
       <c r="E718" s="8"/>
@@ -8059,7 +8067,7 @@
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
     </row>
-    <row r="719" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
       <c r="E719" s="8"/>
@@ -8069,7 +8077,7 @@
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
     </row>
-    <row r="720" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
       <c r="E720" s="8"/>
@@ -8079,7 +8087,7 @@
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
     </row>
-    <row r="721" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
       <c r="E721" s="8"/>
@@ -8089,7 +8097,7 @@
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
     </row>
-    <row r="722" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
       <c r="E722" s="8"/>
@@ -8099,7 +8107,7 @@
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
     </row>
-    <row r="723" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
       <c r="E723" s="8"/>
@@ -8109,7 +8117,7 @@
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
     </row>
-    <row r="724" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
       <c r="E724" s="8"/>
@@ -8119,7 +8127,7 @@
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
     </row>
-    <row r="725" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
       <c r="E725" s="8"/>
@@ -8129,7 +8137,7 @@
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
     </row>
-    <row r="726" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
       <c r="E726" s="8"/>
@@ -8139,7 +8147,7 @@
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
     </row>
-    <row r="727" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
       <c r="E727" s="8"/>
@@ -8149,7 +8157,7 @@
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
     </row>
-    <row r="728" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
       <c r="E728" s="8"/>
@@ -8159,7 +8167,7 @@
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
     </row>
-    <row r="729" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
       <c r="E729" s="8"/>
@@ -8169,7 +8177,7 @@
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
     </row>
-    <row r="730" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
       <c r="E730" s="8"/>
@@ -8179,7 +8187,7 @@
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
     </row>
-    <row r="731" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
       <c r="E731" s="8"/>
@@ -8189,7 +8197,7 @@
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
     </row>
-    <row r="732" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
       <c r="E732" s="8"/>
@@ -8199,7 +8207,7 @@
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
     </row>
-    <row r="733" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
       <c r="E733" s="8"/>
@@ -8209,7 +8217,7 @@
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
     </row>
-    <row r="734" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
       <c r="E734" s="8"/>
@@ -8219,7 +8227,7 @@
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
     </row>
-    <row r="735" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
       <c r="E735" s="8"/>
@@ -8229,7 +8237,7 @@
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
     </row>
-    <row r="736" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
       <c r="E736" s="8"/>
@@ -8239,7 +8247,7 @@
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
     </row>
-    <row r="737" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
       <c r="E737" s="8"/>
@@ -8249,7 +8257,7 @@
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
     </row>
-    <row r="738" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
       <c r="E738" s="8"/>
@@ -8259,7 +8267,7 @@
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
     </row>
-    <row r="739" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
       <c r="E739" s="8"/>
@@ -8269,7 +8277,7 @@
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
     </row>
-    <row r="740" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
       <c r="E740" s="8"/>
@@ -8279,7 +8287,7 @@
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
     </row>
-    <row r="741" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
       <c r="E741" s="8"/>
@@ -8289,7 +8297,7 @@
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
       <c r="E742" s="8"/>
@@ -8299,7 +8307,7 @@
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
     </row>
-    <row r="743" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
       <c r="E743" s="8"/>
@@ -8309,7 +8317,7 @@
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
     </row>
-    <row r="744" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
       <c r="E744" s="8"/>
@@ -8319,7 +8327,7 @@
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
     </row>
-    <row r="745" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
       <c r="E745" s="8"/>
@@ -8329,7 +8337,7 @@
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
     </row>
-    <row r="746" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
       <c r="E746" s="8"/>
@@ -8339,7 +8347,7 @@
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
     </row>
-    <row r="747" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
       <c r="E747" s="8"/>
@@ -8349,7 +8357,7 @@
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
     </row>
-    <row r="748" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
       <c r="E748" s="8"/>
@@ -8359,7 +8367,7 @@
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
     </row>
-    <row r="749" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
       <c r="E749" s="8"/>
@@ -8369,7 +8377,7 @@
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
     </row>
-    <row r="750" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
       <c r="E750" s="8"/>
@@ -8379,7 +8387,7 @@
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
     </row>
-    <row r="751" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
       <c r="E751" s="8"/>
@@ -8389,7 +8397,7 @@
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
     </row>
-    <row r="752" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
       <c r="E752" s="8"/>
@@ -8399,7 +8407,7 @@
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
     </row>
-    <row r="753" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
       <c r="E753" s="8"/>
@@ -8409,7 +8417,7 @@
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
     </row>
-    <row r="754" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
       <c r="E754" s="8"/>
@@ -8419,7 +8427,7 @@
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
     </row>
-    <row r="755" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
       <c r="E755" s="8"/>
@@ -8429,7 +8437,7 @@
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
     </row>
-    <row r="756" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C756" s="8"/>
       <c r="D756" s="8"/>
       <c r="E756" s="8"/>
@@ -8439,7 +8447,7 @@
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
     </row>
-    <row r="757" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C757" s="8"/>
       <c r="D757" s="8"/>
       <c r="E757" s="8"/>
@@ -8449,7 +8457,7 @@
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
     </row>
-    <row r="758" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C758" s="8"/>
       <c r="D758" s="8"/>
       <c r="E758" s="8"/>
@@ -8459,7 +8467,7 @@
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
     </row>
-    <row r="759" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
       <c r="E759" s="8"/>
@@ -8469,7 +8477,7 @@
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
     </row>
-    <row r="760" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
       <c r="E760" s="8"/>
@@ -8479,7 +8487,7 @@
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
     </row>
-    <row r="761" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
       <c r="E761" s="8"/>
@@ -8489,7 +8497,7 @@
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
     </row>
-    <row r="762" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
       <c r="E762" s="8"/>
@@ -8499,7 +8507,7 @@
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
     </row>
-    <row r="763" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
       <c r="E763" s="8"/>
@@ -8509,7 +8517,7 @@
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
     </row>
-    <row r="764" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
       <c r="E764" s="8"/>
@@ -8519,7 +8527,7 @@
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
     </row>
-    <row r="765" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
       <c r="E765" s="8"/>
@@ -8529,7 +8537,7 @@
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
     </row>
-    <row r="766" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
       <c r="E766" s="8"/>
@@ -8539,7 +8547,7 @@
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
     </row>
-    <row r="767" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
       <c r="E767" s="8"/>
@@ -8549,7 +8557,7 @@
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
     </row>
-    <row r="768" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
       <c r="E768" s="8"/>
@@ -8559,7 +8567,7 @@
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
     </row>
-    <row r="769" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
       <c r="E769" s="8"/>
@@ -8569,7 +8577,7 @@
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
     </row>
-    <row r="770" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
       <c r="E770" s="8"/>
@@ -8579,7 +8587,7 @@
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
     </row>
-    <row r="771" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
       <c r="E771" s="8"/>
@@ -8589,7 +8597,7 @@
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
     </row>
-    <row r="772" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
       <c r="E772" s="8"/>
@@ -8599,7 +8607,7 @@
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
     </row>
-    <row r="773" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
       <c r="E773" s="8"/>
@@ -8609,7 +8617,7 @@
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
     </row>
-    <row r="774" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
       <c r="E774" s="8"/>
@@ -8619,7 +8627,7 @@
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
     </row>
-    <row r="775" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
       <c r="E775" s="8"/>
@@ -8629,7 +8637,7 @@
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
     </row>
-    <row r="776" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
       <c r="E776" s="8"/>
@@ -8639,7 +8647,7 @@
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
     </row>
-    <row r="777" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C777" s="8"/>
       <c r="D777" s="8"/>
       <c r="E777" s="8"/>
@@ -8649,7 +8657,7 @@
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
     </row>
-    <row r="778" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C778" s="8"/>
       <c r="D778" s="8"/>
       <c r="E778" s="8"/>
@@ -8659,7 +8667,7 @@
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
     </row>
-    <row r="779" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C779" s="8"/>
       <c r="D779" s="8"/>
       <c r="E779" s="8"/>
@@ -8669,7 +8677,7 @@
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
     </row>
-    <row r="780" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C780" s="8"/>
       <c r="D780" s="8"/>
       <c r="E780" s="8"/>
@@ -8679,7 +8687,7 @@
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
     </row>
-    <row r="781" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C781" s="8"/>
       <c r="D781" s="8"/>
       <c r="E781" s="8"/>
@@ -8689,7 +8697,7 @@
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
     </row>
-    <row r="782" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C782" s="8"/>
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
@@ -8699,7 +8707,7 @@
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
     </row>
-    <row r="783" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C783" s="8"/>
       <c r="D783" s="8"/>
       <c r="E783" s="8"/>
@@ -8709,7 +8717,7 @@
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
     </row>
-    <row r="784" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C784" s="8"/>
       <c r="D784" s="8"/>
       <c r="E784" s="8"/>
@@ -8719,7 +8727,7 @@
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
     </row>
-    <row r="785" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C785" s="8"/>
       <c r="D785" s="8"/>
       <c r="E785" s="8"/>
@@ -8729,7 +8737,7 @@
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
     </row>
-    <row r="786" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C786" s="8"/>
       <c r="D786" s="8"/>
       <c r="E786" s="8"/>
@@ -8739,7 +8747,7 @@
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
     </row>
-    <row r="787" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C787" s="8"/>
       <c r="D787" s="8"/>
       <c r="E787" s="8"/>
@@ -8749,7 +8757,7 @@
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
     </row>
-    <row r="788" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C788" s="8"/>
       <c r="D788" s="8"/>
       <c r="E788" s="8"/>
@@ -8759,7 +8767,7 @@
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
     </row>
-    <row r="789" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C789" s="8"/>
       <c r="D789" s="8"/>
       <c r="E789" s="8"/>
@@ -8769,7 +8777,7 @@
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
     </row>
-    <row r="790" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C790" s="8"/>
       <c r="D790" s="8"/>
       <c r="E790" s="8"/>
@@ -8779,7 +8787,7 @@
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
     </row>
-    <row r="791" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C791" s="8"/>
       <c r="D791" s="8"/>
       <c r="E791" s="8"/>
@@ -8789,7 +8797,7 @@
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
     </row>
-    <row r="792" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C792" s="8"/>
       <c r="D792" s="8"/>
       <c r="E792" s="8"/>
@@ -8799,7 +8807,7 @@
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
     </row>
-    <row r="793" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C793" s="8"/>
       <c r="D793" s="8"/>
       <c r="E793" s="8"/>
@@ -8809,7 +8817,7 @@
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
     </row>
-    <row r="794" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C794" s="8"/>
       <c r="D794" s="8"/>
       <c r="E794" s="8"/>
@@ -8819,7 +8827,7 @@
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
     </row>
-    <row r="795" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C795" s="8"/>
       <c r="D795" s="8"/>
       <c r="E795" s="8"/>
@@ -8829,7 +8837,7 @@
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
     </row>
-    <row r="796" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C796" s="8"/>
       <c r="D796" s="8"/>
       <c r="E796" s="8"/>
@@ -8839,7 +8847,7 @@
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
     </row>
-    <row r="797" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C797" s="8"/>
       <c r="D797" s="8"/>
       <c r="E797" s="8"/>
@@ -8849,7 +8857,7 @@
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
     </row>
-    <row r="798" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C798" s="8"/>
       <c r="D798" s="8"/>
       <c r="E798" s="8"/>
@@ -8859,7 +8867,7 @@
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
     </row>
-    <row r="799" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C799" s="8"/>
       <c r="D799" s="8"/>
       <c r="E799" s="8"/>
@@ -8869,7 +8877,7 @@
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
     </row>
-    <row r="800" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C800" s="8"/>
       <c r="D800" s="8"/>
       <c r="E800" s="8"/>
@@ -8879,7 +8887,7 @@
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
     </row>
-    <row r="801" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C801" s="8"/>
       <c r="D801" s="8"/>
       <c r="E801" s="8"/>
@@ -8889,7 +8897,7 @@
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
     </row>
-    <row r="802" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C802" s="8"/>
       <c r="D802" s="8"/>
       <c r="E802" s="8"/>
@@ -8899,7 +8907,7 @@
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
     </row>
-    <row r="803" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C803" s="8"/>
       <c r="D803" s="8"/>
       <c r="E803" s="8"/>
@@ -8909,7 +8917,7 @@
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
     </row>
-    <row r="804" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C804" s="8"/>
       <c r="D804" s="8"/>
       <c r="E804" s="8"/>
@@ -8919,7 +8927,7 @@
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
     </row>
-    <row r="805" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C805" s="8"/>
       <c r="D805" s="8"/>
       <c r="E805" s="8"/>
@@ -8929,7 +8937,7 @@
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
     </row>
-    <row r="806" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C806" s="8"/>
       <c r="D806" s="8"/>
       <c r="E806" s="8"/>
@@ -8939,7 +8947,7 @@
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
     </row>
-    <row r="807" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C807" s="8"/>
       <c r="D807" s="8"/>
       <c r="E807" s="8"/>
@@ -8949,7 +8957,7 @@
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
     </row>
-    <row r="808" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C808" s="8"/>
       <c r="D808" s="8"/>
       <c r="E808" s="8"/>
@@ -8959,7 +8967,7 @@
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
     </row>
-    <row r="809" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C809" s="8"/>
       <c r="D809" s="8"/>
       <c r="E809" s="8"/>
@@ -8969,7 +8977,7 @@
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
     </row>
-    <row r="810" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C810" s="8"/>
       <c r="D810" s="8"/>
       <c r="E810" s="8"/>
@@ -8979,7 +8987,7 @@
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
     </row>
-    <row r="811" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C811" s="8"/>
       <c r="D811" s="8"/>
       <c r="E811" s="8"/>
@@ -8989,7 +8997,7 @@
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
     </row>
-    <row r="812" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C812" s="8"/>
       <c r="D812" s="8"/>
       <c r="E812" s="8"/>
@@ -8999,7 +9007,7 @@
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
     </row>
-    <row r="813" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C813" s="8"/>
       <c r="D813" s="8"/>
       <c r="E813" s="8"/>
@@ -9009,7 +9017,7 @@
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
     </row>
-    <row r="814" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C814" s="8"/>
       <c r="D814" s="8"/>
       <c r="E814" s="8"/>
@@ -9019,7 +9027,7 @@
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
     </row>
-    <row r="815" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C815" s="8"/>
       <c r="D815" s="8"/>
       <c r="E815" s="8"/>
@@ -9029,7 +9037,7 @@
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
     </row>
-    <row r="816" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C816" s="8"/>
       <c r="D816" s="8"/>
       <c r="E816" s="8"/>
@@ -9039,7 +9047,7 @@
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
     </row>
-    <row r="817" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C817" s="8"/>
       <c r="D817" s="8"/>
       <c r="E817" s="8"/>
@@ -9049,7 +9057,7 @@
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
     </row>
-    <row r="818" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C818" s="8"/>
       <c r="D818" s="8"/>
       <c r="E818" s="8"/>

--- a/Group2_lab02_rubrics_v1.xlsx
+++ b/Group2_lab02_rubrics_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\OneDrive\Desktop\SIT\Year 2\Trimester 3\Info Visualization\Week 2\CSC3107-Information-Visualization-Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BE120-3023-419E-AE47-708A1919431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B48F3-0205-4335-AC54-C2BC673A6D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96928599-CDAC-4613-BDB5-4BE5E419A7EE}"/>
   </bookViews>
@@ -173,10 +173,10 @@
     <t>No use of for loops &amp; spaghetti codes (excessive code repetitions, more than 50 lines for one task)</t>
   </si>
   <si>
-    <t>ABDUL HALIM BIN ABDUL RAHIM(2201627), MIRZA ANAQI BIN MUHAMMAD HAIZAN(2200981), ANG GUO ZHENG FREDERICK(2203322), MARK PENG JUNG ZEN(2200849), FONG KAH KIAN(2200727), AMANDA CHAN HUI EN(2203417)</t>
+    <t>RYAN LYE (2200815), BENJAMIN LOH CHOON HOW (2201590), GABRIEL LAU HIAN (2200749), LEE MUN HONG (2200634), JOYCE TENG MIN LI (2203242), ANG ZHEN CAI (2201290)</t>
   </si>
   <si>
-    <t>RYAN LYE (2200815), BENJAMIN LOH CHOON HOW (2201590), GABRIEL LAU HIAN (2200749), LEE MUN HONG (2200634), JOYCE TENG MIN LI (2203242), ANG ZHEN CAI (2201290)</t>
+    <t>ABDUL HALIM BIN ABDUL RAHIM (2201627), MIRZA ANAQI BIN MUHAMMAD HAIZAN (2200981), ANG GUO ZHENG FREDERICK (2203322), MARK PENG JUNG ZEN (2200849), FONG KAH KIAN (2200727), AMANDA CHAN HUI EN (2203417)</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE2CA15-2318-4978-B433-823B7C3E3AA5}">
   <dimension ref="B1:J818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="4" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
     </row>
     <row r="6" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D16:D49)/(16+14+3)</f>
-        <v>0.96969696969696972</v>
+        <v>1.2424242424242424</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
